--- a/TREC Alliance/29196/ITP - E3001A SH05 SIP Site 1_Guardrail.xlsx
+++ b/TREC Alliance/29196/ITP - E3001A SH05 SIP Site 1_Guardrail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trecnz.sharepoint.com/sites/ZONEE-SH5-HAWKESBAY/Shared Documents/E3001 - SH5 - SIP - Sites 1, 2, 7 and 16/E3001A - SH5 - SIP - Site 1/07 Quality/0701 ITP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\TREC Alliance\29196\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93311CF-B8AD-4FCD-93F5-3BDFC70238E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD06FD3-C354-49B4-B45E-E8DF328E0968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="330" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardrail &amp; Wire Rope" sheetId="1" r:id="rId1"/>
@@ -1490,10 +1490,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1589,45 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1806,8 +1806,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>827314</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214992</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>421389</xdr:rowOff>
     </xdr:to>
@@ -1852,9 +1852,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1892,9 +1892,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1927,26 +1927,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1979,26 +1962,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2174,13 +2140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L1" activeCellId="2" sqref="J1:J1048576 K1:K1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
@@ -2189,8 +2155,8 @@
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2199,19 +2165,19 @@
       <c r="C2" s="4"/>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="150" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="151"/>
-      <c r="K2" s="142" t="s">
+      <c r="J2" s="117"/>
+      <c r="K2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="143"/>
+      <c r="L2" s="109"/>
     </row>
     <row r="3" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
@@ -2219,10 +2185,10 @@
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="149"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="75" t="s">
         <v>5</v>
       </c>
@@ -2239,10 +2205,10 @@
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="120"/>
+      <c r="H4" s="133"/>
       <c r="I4" s="79" t="s">
         <v>10</v>
       </c>
@@ -2255,15 +2221,15 @@
       <c r="L4" s="78"/>
     </row>
     <row r="5" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="81"/>
       <c r="J5" s="82"/>
       <c r="K5" s="83" t="s">
@@ -2274,53 +2240,53 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="121" t="s">
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="110" t="s">
+      <c r="G6" s="134"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
     </row>
     <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128"/>
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
     </row>
     <row r="9" spans="2:12" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
@@ -2677,19 +2643,19 @@
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="120"/>
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B21" s="93">
@@ -2760,10 +2726,10 @@
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="109"/>
+      <c r="C24" s="122"/>
       <c r="E24" s="15"/>
       <c r="F24" s="40"/>
       <c r="G24" s="15"/>
@@ -2887,10 +2853,10 @@
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="2:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="147"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
       <c r="F34" s="50"/>
@@ -2930,10 +2896,10 @@
       <c r="L36" s="63"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="147"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
       <c r="F37" s="50"/>
@@ -2975,10 +2941,10 @@
       <c r="L39" s="63"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="108"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="31"/>
       <c r="E40" s="32"/>
       <c r="F40" s="50"/>
@@ -3018,10 +2984,10 @@
       <c r="K42" s="66"/>
     </row>
     <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="108"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="31"/>
       <c r="E43" s="32"/>
       <c r="F43" s="50"/>
@@ -3253,13 +3219,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B20:L20"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B24:C24"/>
@@ -3271,6 +3230,13 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3286,15 +3252,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156">
@@ -3310,7 +3267,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DD10F8FD5832D439B2F2349C378C0CF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98771f36e820f178e1669312d24efffd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b52167f-bd76-444c-91ba-391bd6f89101" xmlns:ns3="de5d2c5c-e379-42cf-85a4-2a4633504156" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf620252962f8b92ba46aac5a4fb0a72" ns2:_="" ns3:_="">
     <xsd:import namespace="6b52167f-bd76-444c-91ba-391bd6f89101"/>
@@ -3564,65 +3580,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C502322A-531E-484C-AFA3-F380AD05F5FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE20B37E-4C0C-4A77-9628-FA169D75E59B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3639,7 +3597,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C502322A-531E-484C-AFA3-F380AD05F5FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C5052B-4D39-4181-B086-50C5599F4ECF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD9C3D8F-2D9D-4FC1-9093-C99753FDCEE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3656,12 +3630,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C5052B-4D39-4181-B086-50C5599F4ECF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>